--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-18 09:20:11.119474 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-18 09:20:11.121374 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 09:16:16.728835 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 09:16:16.731260 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,13 +909,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J5" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1159,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J6" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1198,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J7" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J8" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1276,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J9" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1315,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="J10" s="6">
-        <v>45918.38901751682</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3890175169444445</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,13 +1334,13 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 09:16:16.728835 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 09:16:16.731260 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 11:08:49.379285 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 11:08:49.381618 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
@@ -918,7 +918,7 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -964,8 +964,7 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,10 +1122,10 @@
         <v>45923</v>
       </c>
       <c r="J5" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1161,10 @@
         <v>45923</v>
       </c>
       <c r="J6" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1200,10 @@
         <v>45923</v>
       </c>
       <c r="J7" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1239,10 @@
         <v>45923</v>
       </c>
       <c r="J8" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1278,10 @@
         <v>45923</v>
       </c>
       <c r="J9" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1317,10 @@
         <v>45923</v>
       </c>
       <c r="J10" s="6">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,7 +1333,7 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
@@ -1343,7 +1342,7 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-23 11:08:49.379285 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 11:08:49.381618 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:04:00.098497 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:04:00.100612 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -964,7 +964,8 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J5" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1158,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J6" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1197,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J7" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1236,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J8" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1275,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J9" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1314,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J10" s="6">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1334,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:04:00.098497 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:04:00.100612 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:18:05.475666 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:18:05.477910 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -964,8 +964,7 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,10 +1122,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1161,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1200,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1239,10 @@
         <v>45951</v>
       </c>
       <c r="J8" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1278,10 @@
         <v>45951</v>
       </c>
       <c r="J9" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1317,10 @@
         <v>45951</v>
       </c>
       <c r="J10" s="6">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 08:18:05.475666 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:18:05.477910 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 09:41:19.134412 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 09:41:19.136559 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1122,10 +1122,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1161,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1200,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1239,10 @@
         <v>45951</v>
       </c>
       <c r="J8" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1278,10 @@
         <v>45951</v>
       </c>
       <c r="J9" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1317,10 @@
         <v>45951</v>
       </c>
       <c r="J10" s="6">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 09:41:19.134412 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 09:41:19.136559 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:34:53.658169 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:34:53.660224 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1122,10 +1122,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1161,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1200,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1239,10 @@
         <v>45951</v>
       </c>
       <c r="J8" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1278,10 @@
         <v>45951</v>
       </c>
       <c r="J9" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1317,10 @@
         <v>45951</v>
       </c>
       <c r="J10" s="6">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:34:53.658169 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:34:53.660224 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:57:39.337348 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:57:39.339389 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -915,10 +915,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1122,10 +1122,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1161,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1200,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1239,10 @@
         <v>45951</v>
       </c>
       <c r="J8" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1278,10 @@
         <v>45951</v>
       </c>
       <c r="J9" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1317,10 @@
         <v>45951</v>
       </c>
       <c r="J10" s="6">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1339,10 +1339,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-21 11:57:39.337348 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:57:39.339389 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 08:30:45.660518 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 08:30:45.662680 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,10 +909,10 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
@@ -963,8 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J5" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K5" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1158,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J6" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K6" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1197,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J7" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K7" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J8" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K8" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1275,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J9" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K9" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1314,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J10" s="6">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K10" s="7">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,10 +1333,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 08:30:45.660518 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 08:30:45.662680 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 16:05:29.829356 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 16:05:29.831438 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -145,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-dd-mm"/>
-    <numFmt numFmtId="165" formatCode="yyyy-dd-mmThh:mm:ss&quot;+00:00&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-ddThh:mm:ss&quot;+00:00&quot;"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss&quot;+00:00&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;P&quot;[h]:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;PT&quot;h&quot;H&quot;mm&quot;M&quot;ss&quot;S&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -281,16 +281,16 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy-dd-mm"/>
+      <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy-dd-mmThh:mm:ss&quot;+00:00&quot;"/>
+      <numFmt numFmtId="165" formatCode="yyyy-mm-ddThh:mm:ss&quot;+00:00&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="hh:mm:ss&quot;+00:00&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;P&quot;[h]:mm:ss"/>
+      <numFmt numFmtId="167" formatCode="&quot;PT&quot;h&quot;H&quot;mm&quot;M&quot;ss&quot;S&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -909,13 +909,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
@@ -963,7 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1122,10 +1123,10 @@
         <v>45952</v>
       </c>
       <c r="J5" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1162,10 @@
         <v>45952</v>
       </c>
       <c r="J6" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1201,10 @@
         <v>45952</v>
       </c>
       <c r="J7" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1240,10 @@
         <v>45952</v>
       </c>
       <c r="J8" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1279,10 @@
         <v>45952</v>
       </c>
       <c r="J9" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1318,10 @@
         <v>45952</v>
       </c>
       <c r="J10" s="6">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,13 +1334,13 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-22 16:05:29.829356 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 16:05:29.831438 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 08:56:35.584850 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 08:56:35.587154 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,13 +909,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
@@ -963,8 +963,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1120,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J5" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K5" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1159,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J6" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K6" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1198,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J7" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K7" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1237,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J8" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K8" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1276,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J9" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K9" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1315,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J10" s="6">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K10" s="7">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,13 +1333,13 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 08:56:35.584850 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 08:56:35.587154 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 09:11:17.615595 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 09:11:17.618024 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -963,7 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1122,10 +1123,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1162,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1201,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1240,10 @@
         <v>45953</v>
       </c>
       <c r="J8" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1279,10 @@
         <v>45953</v>
       </c>
       <c r="J9" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1318,10 @@
         <v>45953</v>
       </c>
       <c r="J10" s="6">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1336,13 +1337,13 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 09:11:17.615595 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 09:11:17.618024 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:36:41.952337 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:36:41.954563 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1123,10 +1123,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1162,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1201,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1240,10 @@
         <v>45953</v>
       </c>
       <c r="J8" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1279,10 @@
         <v>45953</v>
       </c>
       <c r="J9" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1318,10 @@
         <v>45953</v>
       </c>
       <c r="J10" s="6">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,16 +1334,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:36:41.952337 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:36:41.954563 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:39:05.970758 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:39:05.972837 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,10 +912,10 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
@@ -963,9 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,10 +1122,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1161,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1200,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1239,10 @@
         <v>45953</v>
       </c>
       <c r="J8" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1278,10 @@
         <v>45953</v>
       </c>
       <c r="J9" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1317,10 @@
         <v>45953</v>
       </c>
       <c r="J10" s="6">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1337,10 +1336,10 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-23 10:39:05.970758 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:39:05.972837 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-27 12:46:23.888704 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-27 12:46:23.891144 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J5" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1158,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J6" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1197,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J7" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J8" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1275,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J9" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1314,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J10" s="6">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-27 12:46:23.888704 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-27 12:46:23.891144 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 08:49:20.569117 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 08:49:20.571712 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -963,8 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K5" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1158,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K6" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1197,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K7" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K8" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1275,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K9" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1314,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K10" s="7">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 08:49:20.569117 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 08:49:20.571712 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:09:30.843922 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:09:30.846503 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -964,7 +964,8 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1122,10 +1123,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1162,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1201,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1240,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1279,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1318,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1336,13 +1337,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:09:30.843922 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:09:30.846503 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:13:49.533382 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:13:49.535574 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -963,8 +963,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1123,10 +1122,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1161,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1200,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1239,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1278,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1317,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 09:13:49.533382 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:13:49.535574 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 10:53:08.303498 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 10:53:08.305846 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1122,10 +1122,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K5" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1161,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K6" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1200,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K7" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1239,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K8" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1278,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K9" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1317,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K10" s="7">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 10:53:08.303498 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 10:53:08.305846 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 14:45:23.314507 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 14:45:23.317133 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1122,10 +1122,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K5" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1161,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K6" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1200,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K7" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1239,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1278,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K9" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1317,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K10" s="7">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,16 +1333,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 14:45:23.314507 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 14:45:23.317133 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:24:51.190554 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:24:51.193043 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,10 +909,10 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
@@ -963,7 +963,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1122,10 +1123,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K5" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1161,10 +1162,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K6" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1200,10 +1201,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K7" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1239,10 +1240,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K8" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1278,10 +1279,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K9" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1317,10 +1318,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K10" s="7">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1333,10 +1334,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:24:51.190554 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:24:51.193043 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:27:17.836260 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:27:17.838626 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,10 +912,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
@@ -1123,10 +1123,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K5" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1162,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K6" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1201,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K7" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1240,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K8" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1279,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K9" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1318,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K10" s="7">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1337,10 +1337,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:27:17.836260 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:27:17.838626 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:53:37.204634 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:53:37.207264 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1123,10 +1123,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K5" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1162,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K6" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1201,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K7" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1240,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K8" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1279,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K9" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1318,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K10" s="7">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,16 +1334,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:53:37.204634 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:53:37.207264 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:55:32.665216 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:55:32.667716 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1123,10 +1123,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K5" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L5" s="8">
         <v>0.1062847222222222</v>
@@ -1162,10 +1162,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K6" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L6" s="8">
         <v>0.1062847222222222</v>
@@ -1201,10 +1201,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K7" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L7" s="8">
         <v>0.1062847222222222</v>
@@ -1240,10 +1240,10 @@
         <v>45958</v>
       </c>
       <c r="J8" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K8" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L8" s="8">
         <v>0.1062847222222222</v>
@@ -1279,10 +1279,10 @@
         <v>45958</v>
       </c>
       <c r="J9" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K9" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L9" s="8">
         <v>0.1062847222222222</v>
@@ -1318,10 +1318,10 @@
         <v>45958</v>
       </c>
       <c r="J10" s="6">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K10" s="7">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L10" s="8">
         <v>0.1062847222222222</v>
@@ -1334,16 +1334,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+  <si>
+    <t>#section</t>
+  </si>
+  <si>
+    <t>#title</t>
+  </si>
+  <si>
+    <t>#name</t>
   </si>
   <si>
     <t>Column3</t>
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-28 15:55:32.665216 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:55:32.667716 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 11:49:35.092185 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 11:49:35.094681 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -307,9 +307,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
   <autoFilter ref="A2:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="section"/>
-    <tableColumn id="2" name="title"/>
-    <tableColumn id="3" name="name"/>
+    <tableColumn id="1" name="#section"/>
+    <tableColumn id="2" name="#title"/>
+    <tableColumn id="3" name="#name"/>
     <tableColumn id="4" name="Column3"/>
     <tableColumn id="5" name="Column4"/>
     <tableColumn id="6" name="Column5"/>
@@ -319,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:M10" totalsRowShown="0">
-  <autoFilter ref="B4:M10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:L10" totalsRowShown="0">
+  <autoFilter ref="A4:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -635,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="20" bestFit="1" customWidth="1"/>
@@ -647,13 +647,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -945,7 +945,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -954,29 +954,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -985,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -994,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>14</v>
@@ -1009,355 +1007,346 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="10" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
         <v>1.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J5" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="H5" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K5" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M5" s="11">
+      <c r="L5" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
         <v>2.5</v>
       </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="b">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J6" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="H6" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K6" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M6" s="11">
+      <c r="L6" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
         <v>3.5</v>
       </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="b">
+      <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J7" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="H7" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K7" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M7" s="11">
+      <c r="L7" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
         <v>1.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="b">
+      <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J8" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="H8" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K8" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M8" s="11">
+      <c r="L8" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
         <v>2.5</v>
       </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="b">
+      <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J9" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="H9" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M9" s="11">
+      <c r="L9" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
         <v>3.5</v>
       </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="b">
+      <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <v>45958</v>
-      </c>
-      <c r="J10" s="6">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="H10" s="5">
+        <v>45959</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K10" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M10" s="11">
+      <c r="L10" s="11">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N2">
+  <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="C5:C10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B10">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="F5:F10">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E10">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="G5:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F10">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="H5:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 11:49:35.092185 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 11:49:35.094681 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:23:01.912836 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:23:01.915207 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -963,7 +963,8 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,10 +1113,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1151,10 +1152,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1190,10 +1191,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1229,10 +1230,10 @@
         <v>45959</v>
       </c>
       <c r="I8" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J8" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1268,10 +1269,10 @@
         <v>45959</v>
       </c>
       <c r="I9" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J9" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1307,10 +1308,10 @@
         <v>45959</v>
       </c>
       <c r="I10" s="6">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J10" s="7">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1323,16 +1324,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:23:01.912836 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:23:01.915207 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:24:45.896492 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:24:45.899032 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,13 +909,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
@@ -1113,10 +1113,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J5" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1152,10 +1152,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J6" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1191,10 +1191,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J7" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1230,10 +1230,10 @@
         <v>45959</v>
       </c>
       <c r="I8" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J8" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1269,10 +1269,10 @@
         <v>45959</v>
       </c>
       <c r="I9" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J9" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1308,10 +1308,10 @@
         <v>45959</v>
       </c>
       <c r="I10" s="6">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J10" s="7">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1324,13 +1324,13 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 12:24:45.896492 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:24:45.899032 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 13:05:05.721152 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 13:05:05.723558 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1113,10 +1113,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J5" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1152,10 +1152,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J6" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1191,10 +1191,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J7" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1230,10 +1230,10 @@
         <v>45959</v>
       </c>
       <c r="I8" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J8" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1269,10 +1269,10 @@
         <v>45959</v>
       </c>
       <c r="I9" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J9" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1308,10 +1308,10 @@
         <v>45959</v>
       </c>
       <c r="I10" s="6">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J10" s="7">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1324,16 +1324,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-29 13:05:05.721152 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 13:05:05.723558 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-30 13:30:37.051310 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-30 13:30:37.053827 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,8 +962,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1110,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I5" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J5" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1149,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I6" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J6" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1188,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I7" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J7" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1227,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I8" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J8" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1266,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I9" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J9" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1305,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I10" s="6">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J10" s="7">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1324,16 +1323,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-10-30 13:30:37.051310 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-30 13:30:37.053827 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 12:51:16.646634 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 12:51:16.649059 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,13 +909,13 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
@@ -962,7 +962,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1109,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I5" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J5" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1148,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I6" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J6" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1187,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I7" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J7" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1226,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I8" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J8" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1265,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I9" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J9" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1304,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I10" s="6">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J10" s="7">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1323,13 +1324,13 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 12:51:16.646634 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 12:51:16.649059 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 14:58:42.053934 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 14:58:42.056450 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -963,7 +963,7 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1113,10 +1113,10 @@
         <v>45964</v>
       </c>
       <c r="I5" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J5" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1152,10 +1152,10 @@
         <v>45964</v>
       </c>
       <c r="I6" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J6" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1191,10 +1191,10 @@
         <v>45964</v>
       </c>
       <c r="I7" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J7" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1230,10 +1230,10 @@
         <v>45964</v>
       </c>
       <c r="I8" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J8" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1269,10 +1269,10 @@
         <v>45964</v>
       </c>
       <c r="I9" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J9" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1308,10 +1308,10 @@
         <v>45964</v>
       </c>
       <c r="I10" s="6">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J10" s="7">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1324,16 +1324,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-03 14:58:42.053934 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 14:58:42.056450 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-04 14:52:06.747690 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-04 14:52:06.750276 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,8 +962,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1110,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I5" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J5" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1149,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I6" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1188,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I7" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1227,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I8" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J8" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1266,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I9" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J9" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1305,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I10" s="6">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J10" s="7">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1327,13 +1327,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-04 14:52:06.747690 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-04 14:52:06.750276 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-05 09:42:01.370672 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-05 09:42:01.373292 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,8 +962,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1110,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I5" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J5" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1149,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I6" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1188,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I7" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1227,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I8" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J8" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1266,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I9" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J9" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1305,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I10" s="6">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J10" s="7">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1324,16 +1323,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-05 09:42:01.370672 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-05 09:42:01.373292 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:26:03.593705 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:26:03.596163 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,7 +962,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1109,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I5" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1148,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I6" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1187,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I7" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1226,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I8" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J8" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1265,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I9" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J9" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1304,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I10" s="6">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J10" s="7">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1323,16 +1324,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:26:03.593705 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:26:03.596163 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:36:46.412507 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:36:46.415029 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,9 +962,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1113,10 +1112,10 @@
         <v>45968</v>
       </c>
       <c r="I5" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1152,10 +1151,10 @@
         <v>45968</v>
       </c>
       <c r="I6" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1191,10 +1190,10 @@
         <v>45968</v>
       </c>
       <c r="I7" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1230,10 +1229,10 @@
         <v>45968</v>
       </c>
       <c r="I8" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J8" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1269,10 +1268,10 @@
         <v>45968</v>
       </c>
       <c r="I9" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J9" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1308,10 +1307,10 @@
         <v>45968</v>
       </c>
       <c r="I10" s="6">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J10" s="7">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1327,13 +1326,13 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 10:36:46.412507 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:36:46.415029 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 15:38:14.353701 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 15:38:14.356166 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,8 +962,9 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,10 +1113,10 @@
         <v>45968</v>
       </c>
       <c r="I5" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1151,10 +1152,10 @@
         <v>45968</v>
       </c>
       <c r="I6" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1190,10 +1191,10 @@
         <v>45968</v>
       </c>
       <c r="I7" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1229,10 +1230,10 @@
         <v>45968</v>
       </c>
       <c r="I8" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J8" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1268,10 +1269,10 @@
         <v>45968</v>
       </c>
       <c r="I9" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J9" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1307,10 +1308,10 @@
         <v>45968</v>
       </c>
       <c r="I10" s="6">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J10" s="7">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1323,16 +1324,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-07 15:38:14.353701 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 15:38:14.356166 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:29:21.431835 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:29:21.434425 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
       <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -962,8 +962,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1110,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I5" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J5" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1149,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I6" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1188,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I7" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1227,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I8" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J8" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1266,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I9" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J9" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1305,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I10" s="6">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J10" s="7">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1327,13 +1326,13 @@
       <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:29:21.431835 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:29:21.434425 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:38:44.963697 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:38:44.966263 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -909,16 +909,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1112,10 +1112,10 @@
         <v>45973</v>
       </c>
       <c r="I5" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -1151,10 +1151,10 @@
         <v>45973</v>
       </c>
       <c r="I6" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -1190,10 +1190,10 @@
         <v>45973</v>
       </c>
       <c r="I7" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -1229,10 +1229,10 @@
         <v>45973</v>
       </c>
       <c r="I8" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J8" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K8" s="8">
         <v>0.1062847222222222</v>
@@ -1268,10 +1268,10 @@
         <v>45973</v>
       </c>
       <c r="I9" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J9" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K9" s="8">
         <v>0.1062847222222222</v>
@@ -1307,10 +1307,10 @@
         <v>45973</v>
       </c>
       <c r="I10" s="6">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J10" s="7">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K10" s="8">
         <v>0.1062847222222222</v>
@@ -1323,16 +1323,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t>#section</t>
   </si>
@@ -134,10 +134,13 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-12 11:38:44.963697 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:38:44.966263 - DatamodelUrl=None</t>
+    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:02:32.962695 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:02:32.965409 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -238,10 +241,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -304,8 +318,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
-  <autoFilter ref="A2:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
+  <autoFilter ref="A3:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#section"/>
     <tableColumn id="2" name="#title"/>
@@ -319,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:L10" totalsRowShown="0">
-  <autoFilter ref="A4:L10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L11" totalsRowShown="0">
+  <autoFilter ref="A5:L11"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -626,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -643,47 +657,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -691,18 +685,18 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -711,39 +705,39 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>1.5</v>
-      </c>
-      <c r="E5">
-        <v>2.5</v>
-      </c>
-      <c r="F5">
-        <v>3.5</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -751,19 +745,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -771,59 +765,59 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45449</v>
-      </c>
-      <c r="E10" s="5">
-        <v>45449</v>
-      </c>
-      <c r="F10" s="5">
-        <v>45449</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -831,19 +825,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6">
-        <v>45449.42282498576</v>
+        <v>45449</v>
       </c>
       <c r="E11" s="6">
-        <v>45449.42282498576</v>
+        <v>45449</v>
       </c>
       <c r="F11" s="6">
-        <v>45449.42282498576</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -851,19 +845,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>0.4228249879513889</v>
+        <v>45449.42282498576</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4228249879513889</v>
+        <v>45449.42282498576</v>
       </c>
       <c r="F12" s="7">
-        <v>0.4228249879513889</v>
+        <v>45449.42282498576</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -871,68 +865,88 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.4228249879513889</v>
       </c>
       <c r="E13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.4228249879513889</v>
       </c>
       <c r="F13" s="8">
-        <v>0.1062847222222222</v>
+        <v>0.4228249879513889</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="5">
         <v>1.5</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="5">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="5">
         <v>10.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A15">
+  <conditionalFormatting sqref="A4:A16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D4:F4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D5:F5">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D7:F7">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D8:F8">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D8:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D9:F9">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D9:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D10:F10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -945,10 +959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -962,391 +976,392 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:12" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="5">
         <v>1.5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I5" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="H6" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I6" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K6" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L6" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="7" spans="1:12">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="5">
         <v>2.5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I6" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="H7" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K7" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="8" spans="1:12">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="5">
         <v>3.5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I7" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="H8" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I8" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K8" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="9" spans="1:12">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="5">
         <v>1.5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I8" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="H9" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I9" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K9" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L9" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+    <row r="10" spans="1:12">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="5">
         <v>2.5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I9" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="H10" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K10" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="5">
         <v>3.5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
-        <v>45973</v>
-      </c>
-      <c r="I10" s="6">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="H11" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I11" s="7">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K11" s="9">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="12">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M2">
+  <conditionalFormatting sqref="A3:M3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B6:B11">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E10">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E6:E11">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F6:F11">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G6:G11">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>#section</t>
   </si>
@@ -134,13 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:02:32.962695 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:02:32.965409 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:14:58.007905 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:14:58.011907 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -318,8 +315,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
-  <autoFilter ref="A3:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0">
+  <autoFilter ref="A2:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#section"/>
     <tableColumn id="2" name="#title"/>
@@ -333,8 +330,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L11" totalsRowShown="0">
-  <autoFilter ref="A5:L11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:L10" totalsRowShown="0">
+  <autoFilter ref="A4:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -640,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -657,27 +654,47 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,16 +702,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -705,39 +722,39 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -745,19 +762,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -765,59 +782,59 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45449</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45449</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45449</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -825,19 +842,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45449</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45449</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45449</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45449.42282498576</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45449.42282498576</v>
+      </c>
+      <c r="F11" s="7">
+        <v>45449.42282498576</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -845,19 +862,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7">
-        <v>45449.42282498576</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45449.42282498576</v>
-      </c>
-      <c r="F12" s="7">
-        <v>45449.42282498576</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.4228249879513889</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.4228249879513889</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.4228249879513889</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,88 +882,68 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.4228249879513889</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.4228249879513889</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.4228249879513889</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.1062847222222222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D14" s="5">
         <v>1.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F14" s="5">
         <v>10.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A16">
+  <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D5:F5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="D4:F4">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D8:F8">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="D7:F7">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D9:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="D8:F8">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D10:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="D9:F9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -959,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -984,135 +981,174 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1">
-      <c r="A5" s="11" t="s">
+    <row r="4" spans="1:12" s="11" customFormat="1">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45985</v>
+      </c>
+      <c r="I5" s="7">
+        <v>45985.63539205571</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.6353920559143519</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="L5" s="12">
+        <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1127,10 +1163,10 @@
         <v>45985</v>
       </c>
       <c r="I6" s="7">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J6" s="8">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K6" s="9">
         <v>0.1062847222222222</v>
@@ -1142,22 +1178,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5" t="b">
         <v>1</v>
@@ -1166,10 +1202,10 @@
         <v>45985</v>
       </c>
       <c r="I7" s="7">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J7" s="8">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K7" s="9">
         <v>0.1062847222222222</v>
@@ -1181,22 +1217,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5" t="b">
         <v>1</v>
@@ -1205,10 +1241,10 @@
         <v>45985</v>
       </c>
       <c r="I8" s="7">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J8" s="8">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K8" s="9">
         <v>0.1062847222222222</v>
@@ -1220,16 +1256,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -1244,10 +1280,10 @@
         <v>45985</v>
       </c>
       <c r="I9" s="7">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J9" s="8">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K9" s="9">
         <v>0.1062847222222222</v>
@@ -1259,22 +1295,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5" t="b">
         <v>1</v>
@@ -1283,10 +1319,10 @@
         <v>45985</v>
       </c>
       <c r="I10" s="7">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J10" s="8">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K10" s="9">
         <v>0.1062847222222222</v>
@@ -1296,72 +1332,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>45985</v>
-      </c>
-      <c r="I11" s="7">
-        <v>45985.62676849171</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.6267684919444444</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="L11" s="12">
-        <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:M3">
+  <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B6:B11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B10">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E6:E11">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E10">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F6:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F10">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G6:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:14:58.007905 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:14:58.011907 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:19:53.684832 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:19:53.687533 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -973,8 +973,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1124,10 +1123,10 @@
         <v>45985</v>
       </c>
       <c r="I5" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J5" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K5" s="9">
         <v>0.1062847222222222</v>
@@ -1163,10 +1162,10 @@
         <v>45985</v>
       </c>
       <c r="I6" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J6" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K6" s="9">
         <v>0.1062847222222222</v>
@@ -1202,10 +1201,10 @@
         <v>45985</v>
       </c>
       <c r="I7" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J7" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K7" s="9">
         <v>0.1062847222222222</v>
@@ -1241,10 +1240,10 @@
         <v>45985</v>
       </c>
       <c r="I8" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J8" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K8" s="9">
         <v>0.1062847222222222</v>
@@ -1280,10 +1279,10 @@
         <v>45985</v>
       </c>
       <c r="I9" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J9" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K9" s="9">
         <v>0.1062847222222222</v>
@@ -1319,10 +1318,10 @@
         <v>45985</v>
       </c>
       <c r="I10" s="7">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J10" s="8">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K10" s="9">
         <v>0.1062847222222222</v>

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-11-24 15:19:53.684832 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:19:53.687533 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 11:58:46.803321 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 11:58:46.805372 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -920,16 +920,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I5" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J5" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K5" s="9">
         <v>0.1062847222222222</v>
@@ -1159,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I6" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J6" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K6" s="9">
         <v>0.1062847222222222</v>
@@ -1198,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I7" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J7" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K7" s="9">
         <v>0.1062847222222222</v>
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I8" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J8" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K8" s="9">
         <v>0.1062847222222222</v>
@@ -1276,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I9" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J9" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K9" s="9">
         <v>0.1062847222222222</v>
@@ -1315,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="6">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I10" s="7">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J10" s="8">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K10" s="9">
         <v>0.1062847222222222</v>
@@ -1334,16 +1334,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test-many-sheets.xlsx
+++ b/xl/test-many-sheets.xlsx
@@ -134,10 +134,10 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 11:58:46.803321 - DatamodelUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 11:58:46.805372 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-12-05 12:00:00.727286 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 12:00:00.729449 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -920,16 +920,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -973,7 +973,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1123,10 +1124,10 @@
         <v>45996</v>
       </c>
       <c r="I5" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J5" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K5" s="9">
         <v>0.1062847222222222</v>
@@ -1162,10 +1163,10 @@
         <v>45996</v>
       </c>
       <c r="I6" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J6" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K6" s="9">
         <v>0.1062847222222222</v>
@@ -1201,10 +1202,10 @@
         <v>45996</v>
       </c>
       <c r="I7" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J7" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K7" s="9">
         <v>0.1062847222222222</v>
@@ -1240,10 +1241,10 @@
         <v>45996</v>
       </c>
       <c r="I8" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J8" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K8" s="9">
         <v>0.1062847222222222</v>
@@ -1279,10 +1280,10 @@
         <v>45996</v>
       </c>
       <c r="I9" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J9" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K9" s="9">
         <v>0.1062847222222222</v>
@@ -1318,10 +1319,10 @@
         <v>45996</v>
       </c>
       <c r="I10" s="7">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J10" s="8">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K10" s="9">
         <v>0.1062847222222222</v>
@@ -1334,16 +1335,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
